--- a/Projects/SANOFIAE_SAND/Data/Template.xlsx
+++ b/Projects/SANOFIAE_SAND/Data/Template.xlsx
@@ -24,9 +24,13 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$D$59</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$D$2:$E$177</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$D$2:$E$177</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$D$2:$E$177</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$D$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet2!$A$1:$D$59</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_POSM'!$A$2:$N$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_POSM'!$A$2:$N$2</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$M$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$M$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1828,7 +1832,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1850,13 +1854,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -2179,7 +2176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2203,25 +2200,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2265,7 +2258,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2273,11 +2266,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2309,7 +2302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2361,248 +2354,239 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="10" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="12" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="12" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="12" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="10" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="10" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2696,14 +2680,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2950,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,12 +3153,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,11 +4787,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0404858299595"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.7570850202429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,22 +5587,22 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="A3:N38"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="43.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="37" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="38" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="39" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="39" width="11.8744939271255"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="39" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="39" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="25.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="44.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="37" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="38" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="39" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="39" width="12.1174089068826"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="39" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="39" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6252,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,15 +6487,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="50" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="31.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="50" width="17.3805668016194"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="51" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="25.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="50" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="32.0728744939271"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="50" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="51" width="9.18218623481781"/>
   </cols>
   <sheetData>
-    <row r="1" s="54" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="52"/>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -6567,133 +6551,133 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6723,19 +6707,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="61" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="37.582995951417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="61" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="62" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="60" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="60" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="61" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="41" t="s">
         <v>372</v>
       </c>
@@ -6793,11 +6777,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -6809,11 +6793,11 @@
       <c r="N3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -6825,11 +6809,11 @@
       <c r="N4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
@@ -6841,11 +6825,11 @@
       <c r="N5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -6857,11 +6841,11 @@
       <c r="N6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
@@ -6873,11 +6857,11 @@
       <c r="N7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="66"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -6889,11 +6873,11 @@
       <c r="N8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="66"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6905,7 +6889,7 @@
       <c r="N9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -6921,11 +6905,11 @@
       <c r="N10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="0"/>
       <c r="C11" s="45"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -6937,11 +6921,11 @@
       <c r="N11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="64"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="0"/>
       <c r="C12" s="45"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="67"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -6953,11 +6937,11 @@
       <c r="N12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="64"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="0"/>
       <c r="C13" s="45"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="67"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -6969,11 +6953,11 @@
       <c r="N13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="64"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="68"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -7012,13 +6996,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="69" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="70" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="71" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="70" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="70" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="69" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="72" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="68" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="69" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="50" width="11.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="70" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7040,19 +7024,19 @@
       <c r="N1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="73" t="s">
+      <c r="A2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>304</v>
       </c>
       <c r="F2" s="43" t="s">
@@ -7084,574 +7068,574 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>247</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="78" t="n">
+      <c r="F3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="75" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="78" t="n">
+      <c r="F4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="75" t="s">
         <v>227</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="78" t="n">
+      <c r="F5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="75" t="s">
         <v>227</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="78" t="n">
+      <c r="F6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="78" t="n">
+      <c r="F7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="78" t="n">
+      <c r="F8" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="78" t="n">
+      <c r="F9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="75" t="s">
         <v>247</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="78" t="n">
+      <c r="F10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="75" t="s">
         <v>223</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="78" t="n">
+      <c r="F11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>394</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="F12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="78" t="n">
+      <c r="F12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="78" t="n">
+      <c r="F13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="78" t="n">
+      <c r="F14" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="78" t="n">
+      <c r="F15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7685,21 +7669,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="84" width="31.4655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="84" width="43.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="84" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="84" width="17.6234817813765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="84" width="16.6477732793522"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="84" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="85" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="82" width="32.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="82" width="44.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="82" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="82" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="82" width="17.0161943319838"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="82" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="83" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="41" t="s">
         <v>372</v>
       </c>
@@ -8723,19 +8707,19 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>304</v>
       </c>
       <c r="F2" s="43" t="s">
@@ -9776,1202 +9760,1202 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88" t="s">
+    <row r="3" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="90" t="n">
+      <c r="C3" s="88" t="n">
         <v>652992</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="92" t="n">
+      <c r="F3" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="92" t="n">
+      <c r="G3" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="92" t="n">
+      <c r="H3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="88" t="s">
+      <c r="K3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="90" t="n">
+      <c r="C4" s="88" t="n">
         <v>652987</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88" t="s">
+      <c r="F4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="90" t="n">
+      <c r="C5" s="88" t="n">
         <v>653091</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
+      <c r="F5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="90" t="n">
+      <c r="C6" s="88" t="n">
         <v>352016</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="92" t="n">
+      <c r="F6" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="92" t="n">
+      <c r="G6" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="92" t="n">
+      <c r="H6" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="92" t="n">
+      <c r="I6" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="92" t="n">
+      <c r="J6" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="92" t="n">
+      <c r="K6" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="92" t="n">
+      <c r="L6" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="90" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
+    <row r="7" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="90" t="n">
+      <c r="C7" s="88" t="n">
         <v>651766</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="92" t="n">
+      <c r="F7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="N7" s="92" t="n">
+      <c r="N7" s="90" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88" t="s">
+    <row r="8" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="90" t="n">
+      <c r="C8" s="88" t="n">
         <v>651736</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="88" t="s">
+      <c r="F8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="90" t="n">
+      <c r="C9" s="88" t="n">
         <v>336143</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
+      <c r="F9" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="90" t="n">
+      <c r="C10" s="88" t="n">
         <v>336145</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
+      <c r="F10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="91" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="90" t="n">
+      <c r="C11" s="88" t="n">
         <v>311922</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="88" t="s">
+      <c r="F11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="90" t="n">
+      <c r="C12" s="88" t="n">
         <v>599663</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="89" t="s">
         <v>174</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="92" t="n">
+      <c r="F12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="92" t="n">
+      <c r="G12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="92" t="n">
+      <c r="H12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="92" t="n">
+      <c r="I12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="92" t="n">
+      <c r="J12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="K12" s="92" t="n">
+      <c r="K12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="L12" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="92" t="n">
+      <c r="L12" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="N12" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="93" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
+      <c r="N12" s="90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="90" t="n">
+      <c r="C13" s="88" t="n">
         <v>618678</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="89" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="92" t="n">
+      <c r="F13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="90" t="n">
+      <c r="C14" s="88" t="n">
         <v>651671</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="92" t="n">
+      <c r="F14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="90" t="n">
+      <c r="C15" s="88" t="n">
         <v>651673</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="92" t="n">
-        <v>1</v>
+      <c r="F15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="90" t="n">
+      <c r="C16" s="88" t="n">
         <v>565558</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="89" t="s">
         <v>211</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="92" t="n">
+      <c r="F16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="90" t="n">
+      <c r="C17" s="88" t="n">
         <v>292174</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="89" t="s">
         <v>211</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="92" t="n">
+      <c r="F17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="C18" s="90" t="n">
+      <c r="C18" s="88" t="n">
         <v>655324</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="89" t="s">
         <v>168</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="92" t="n">
+      <c r="F18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="90" t="n">
+      <c r="C19" s="88" t="n">
         <v>680065</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="89" t="s">
         <v>168</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="92" t="n">
+      <c r="F19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="90" t="n">
+      <c r="C20" s="88" t="n">
         <v>674017</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="89" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="92" t="n">
+      <c r="F20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="90" t="n">
+      <c r="C21" s="88" t="n">
         <v>652992</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="92" t="n">
+      <c r="F21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="90" t="n">
+      <c r="C22" s="88" t="n">
         <v>652987</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="92" t="n">
+      <c r="F22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="90" t="n">
+      <c r="C23" s="88" t="n">
         <v>653091</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="92" t="n">
+      <c r="F23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="90" t="n">
+      <c r="C24" s="88" t="n">
         <v>352016</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="92" t="n">
+      <c r="F24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="90" t="n">
+      <c r="C25" s="88" t="n">
         <v>651766</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="92" t="n">
+      <c r="F25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="90" t="n">
+      <c r="C26" s="88" t="n">
         <v>651736</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="91" t="s">
+      <c r="E26" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="92" t="n">
+      <c r="F26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="90" t="n">
+      <c r="C27" s="88" t="n">
         <v>336143</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="91" t="s">
+      <c r="E27" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="92" t="n">
+      <c r="F27" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="90" t="n">
+      <c r="C28" s="88" t="n">
         <v>336145</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="92" t="n">
+      <c r="F28" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="90" t="n">
+      <c r="C29" s="88" t="n">
         <v>311922</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="92" t="n">
+      <c r="F29" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="90" t="n">
+      <c r="C30" s="88" t="n">
         <v>599663</v>
       </c>
       <c r="D30" s="45" t="s">
@@ -10980,383 +10964,383 @@
       <c r="E30" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="92" t="n">
+      <c r="F30" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="92" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="C31" s="90" t="n">
+      <c r="C31" s="88" t="n">
         <v>618678</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="89" t="s">
         <v>174</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="92" t="n">
+      <c r="F31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="90" t="n">
+      <c r="C32" s="88" t="n">
         <v>651671</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="92" t="n">
+      <c r="F32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="90" t="n">
+      <c r="C33" s="88" t="n">
         <v>651673</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="92" t="n">
+      <c r="F33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="C34" s="90" t="n">
+      <c r="C34" s="88" t="n">
         <v>565558</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="92" t="n">
+      <c r="F34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="C35" s="90" t="n">
+      <c r="C35" s="88" t="n">
         <v>292174</v>
       </c>
-      <c r="D35" s="91" t="s">
+      <c r="D35" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="91" t="s">
+      <c r="E35" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="92" t="n">
+      <c r="F35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="C36" s="90" t="n">
+      <c r="C36" s="88" t="n">
         <v>655324</v>
       </c>
-      <c r="D36" s="91" t="s">
+      <c r="D36" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="92" t="n">
+      <c r="F36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>387</v>
       </c>
-      <c r="C37" s="90" t="n">
+      <c r="C37" s="88" t="n">
         <v>680065</v>
       </c>
-      <c r="D37" s="91" t="s">
+      <c r="D37" s="89" t="s">
         <v>168</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="92" t="n">
+      <c r="F37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="C38" s="90" t="n">
+      <c r="C38" s="88" t="n">
         <v>674017</v>
       </c>
-      <c r="D38" s="91" t="s">
+      <c r="D38" s="89" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="92" t="n">
+      <c r="F38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="90" t="n">
         <v>0</v>
       </c>
     </row>
